--- a/relaxsation_method_numeric_execrsise/potential_data.xlsx
+++ b/relaxsation_method_numeric_execrsise/potential_data.xlsx
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.096412948478326e-16</v>
+        <v>1.096412948478326e-16</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.301522415186238e-16</v>
+        <v>2.301522415186238e-16</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.733945681560478e-16</v>
+        <v>3.733945681560478e-16</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.533374271008104e-16</v>
+        <v>5.533374271008104e-16</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.872695562293953e-16</v>
+        <v>7.872695562293953e-16</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.097422336347539e-15</v>
+        <v>1.097422336347539e-15</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.512812214507949e-15</v>
+        <v>1.512812214507949e-15</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.071917342782632e-15</v>
+        <v>2.071917342782632e-15</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.825753028427734e-15</v>
+        <v>2.825753028427734e-15</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.842475765502078e-15</v>
+        <v>3.842475765502078e-15</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.212665075132182e-15</v>
+        <v>5.212665075132182e-15</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-7.05731468623798e-15</v>
+        <v>7.05731468623798e-15</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-9.536941597640963e-15</v>
+        <v>9.536941597640963e-15</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.28654273825258e-14</v>
+        <v>1.28654273825258e-14</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.732566789837601e-14</v>
+        <v>1.732566789837601e-14</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.329341309836792e-14</v>
+        <v>2.329341309836792e-14</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.126398383454465e-14</v>
+        <v>3.126398383454465e-14</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.18930576812135e-14</v>
+        <v>4.18930576812135e-14</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.604195449158599e-14</v>
+        <v>5.604195449158599e-14</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-7.484692252890417e-14</v>
+        <v>7.484692252890417e-14</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-9.979533172538892e-14</v>
+        <v>9.979533172538892e-14</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.328425337065236e-13</v>
+        <v>1.328425337065236e-13</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.765390981757635e-13</v>
+        <v>1.765390981757635e-13</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.342264952271137e-13</v>
+        <v>2.342264952271137e-13</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-3.102479688142044e-13</v>
+        <v>3.102479688142044e-13</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-4.102738457785274e-13</v>
+        <v>4.102738457785274e-13</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.416483784100215e-13</v>
+        <v>5.416483784100215e-13</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-7.139266470828425e-13</v>
+        <v>7.139266470828425e-13</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-9.394407053997469e-13</v>
+        <v>9.394407053997469e-13</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.23417930455004e-12</v>
+        <v>1.23417930455004e-12</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.618704943056599e-12</v>
+        <v>1.618704943056599e-12</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-2.11958488894924e-12</v>
+        <v>2.11958488894924e-12</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-2.770865227303581e-12</v>
+        <v>2.770865227303581e-12</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.616381816921946e-12</v>
+        <v>3.616381816921946e-12</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-4.712111363411866e-12</v>
+        <v>4.712111363411866e-12</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-6.129876348647491e-12</v>
+        <v>6.129876348647491e-12</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-7.96106584483291e-12</v>
+        <v>7.96106584483291e-12</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.032253219699659e-11</v>
+        <v>1.032253219699659e-11</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.336243362895977e-11</v>
+        <v>1.336243362895977e-11</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.726955115833111e-11</v>
+        <v>1.726955115833111e-11</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.228239086961327e-11</v>
+        <v>2.228239086961327e-11</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.870379794483809e-11</v>
+        <v>2.870379794483809e-11</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-3.691502502946736e-11</v>
+        <v>3.691502502946736e-11</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-4.739848835541641e-11</v>
+        <v>4.739848835541641e-11</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-6.075933831461124e-11</v>
+        <v>6.075933831461124e-11</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-7.776063605414533e-11</v>
+        <v>7.776063605414533e-11</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-9.935616113533868e-11</v>
+        <v>9.935616113533868e-11</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.267443916110889e-10</v>
+        <v>1.267443916110889e-10</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.614179980554562e-10</v>
+        <v>1.614179980554562e-10</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-2.052460743271489e-10</v>
+        <v>2.052460743271489e-10</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-2.605481934908678e-10</v>
+        <v>2.605481934908678e-10</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-3.302187599574165e-10</v>
+        <v>3.302187599574165e-10</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-4.178368994408578e-10</v>
+        <v>4.178368994408578e-10</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.278531344981509e-10</v>
+        <v>5.278531344981509e-10</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-6.657510827470956e-10</v>
+        <v>6.657510827470956e-10</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-8.383256420408083e-10</v>
+        <v>8.383256420408083e-10</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.053918904946601e-09</v>
+        <v>1.053918904946601e-09</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.322831678145916e-09</v>
+        <v>1.322831678145916e-09</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.657664717639128e-09</v>
+        <v>1.657664717639128e-09</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-2.073923030636373e-09</v>
+        <v>2.073923030636373e-09</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-2.590505140876273e-09</v>
+        <v>2.590505140876273e-09</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-3.230583980636101e-09</v>
+        <v>3.230583980636101e-09</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-4.022302172111309e-09</v>
+        <v>4.022302172111309e-09</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-5.00004668789017e-09</v>
+        <v>5.00004668789017e-09</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-6.205427952964471e-09</v>
+        <v>6.205427952964471e-09</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-7.68911075848705e-09</v>
+        <v>7.68911075848705e-09</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-9.512180297007372e-09</v>
+        <v>9.512180297007372e-09</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.174875276989807e-08</v>
+        <v>1.174875276989807e-08</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.448786322985475e-08</v>
+        <v>1.448786322985475e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.783716058418289e-08</v>
+        <v>1.783716058418289e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-2.192549121187305e-08</v>
+        <v>2.192549121187305e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-2.690809039944038e-08</v>
+        <v>2.690809039944038e-08</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-3.297008275859963e-08</v>
+        <v>3.297008275859963e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-4.033372258405497e-08</v>
+        <v>4.033372258405497e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-4.926308727764326e-08</v>
+        <v>4.926308727764326e-08</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-6.007410117774393e-08</v>
+        <v>6.007410117774393e-08</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-7.314076084863436e-08</v>
+        <v>7.314076084863436e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-8.890891067999516e-08</v>
+        <v>8.890891067999516e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.079044071364374e-07</v>
+        <v>1.079044071364374e-07</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.307519116511327e-07</v>
+        <v>1.307519116511327e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.581854710512803e-07</v>
+        <v>1.581854710512803e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.910739675335203e-07</v>
+        <v>1.910739675335203e-07</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.304346582680618e-07</v>
+        <v>2.304346582680618e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-2.774673888762865e-07</v>
+        <v>2.774673888762865e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-3.335716870717455e-07</v>
+        <v>3.335716870717455e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-4.0039242207032e-07</v>
+        <v>4.0039242207032e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-4.798410710719956e-07</v>
+        <v>4.798410710719956e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-5.741562109055864e-07</v>
+        <v>5.741562109055864e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-6.8592955271301e-07</v>
+        <v>6.8592955271301e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-8.181855035010578e-07</v>
+        <v>8.181855035010578e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-9.744124673934069e-07</v>
+        <v>9.744124673934069e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.158666733966038e-06</v>
+        <v>1.158666733966038e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.375609339846382e-06</v>
+        <v>1.375609339846382e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.630640748194114e-06</v>
+        <v>1.630640748194114e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.929943209288568e-06</v>
+        <v>1.929943209288568e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-2.280654111142189e-06</v>
+        <v>2.280654111142189e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-2.69091321934841e-06</v>
+        <v>2.69091321934841e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-3.170084221067157e-06</v>
+        <v>3.170084221067157e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-3.728805400089701e-06</v>
+        <v>3.728805400089701e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-4.379270781605977e-06</v>
+        <v>4.379270781605977e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-5.135281635798648e-06</v>
+        <v>5.135281635798648e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-6.012600772199681e-06</v>
+        <v>6.012600772199681e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-7.029000683435038e-06</v>
+        <v>7.029000683435038e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-8.204706945261831e-06</v>
+        <v>8.204706945261831e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-9.562436724862782e-06</v>
+        <v>9.562436724862782e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.112794992139331e-05</v>
+        <v>1.112794992139331e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.293006908231278e-05</v>
+        <v>1.293006908231278e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.500135987084422e-05</v>
+        <v>1.500135987084422e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.737812007527654e-05</v>
+        <v>1.737812007527654e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-2.010121421172098e-05</v>
+        <v>2.010121421172098e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-2.321601520326319e-05</v>
+        <v>2.321601520326319e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-2.67734214135389e-05</v>
+        <v>2.67734214135389e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-3.082972966530046e-05</v>
+        <v>3.082972966530046e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-3.544786674628313e-05</v>
+        <v>3.544786674628313e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-4.069716671470305e-05</v>
+        <v>4.069716671470305e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-4.66548529188115e-05</v>
+        <v>4.66548529188115e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-5.340568603310556e-05</v>
+        <v>5.340568603310556e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-6.104373688720028e-05</v>
+        <v>6.104373688720028e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-6.967186448873615e-05</v>
+        <v>6.967186448873615e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-7.940382447612252e-05</v>
+        <v>7.940382447612252e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-9.036352869201838e-05</v>
+        <v>9.036352869201838e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.0001026875388849799</v>
+        <v>0.0001026875388849799</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.0001165240514814813</v>
+        <v>0.0001165240514814813</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.0001320358313153231</v>
+        <v>0.0001320358313153231</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.0001493988575071017</v>
+        <v>0.0001493988575071017</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.0001688057575853585</v>
+        <v>0.0001688057575853585</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.0001904640433610914</v>
+        <v>0.0001904640433610914</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.0002146001119605431</v>
+        <v>0.0002146001119605431</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.0002414569949811957</v>
+        <v>0.0002414569949811957</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.0002712989998955059</v>
+        <v>0.0002712989998955059</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.0003044088924818782</v>
+        <v>0.0003044088924818782</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.0003410932600989457</v>
+        <v>0.0003410932600989457</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.0003816790475041236</v>
+        <v>0.0003816790475041236</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.0004265197331083381</v>
+        <v>0.0004265197331083381</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.0004759911431881492</v>
+        <v>0.0004759911431881492</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.000530498544103701</v>
+        <v>0.000530498544103701</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.0005904716712645514</v>
+        <v>0.0005904716712645514</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.0006563728554562097</v>
+        <v>0.0006563728554562097</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.0007286912228530559</v>
+        <v>0.0007286912228530559</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.0008079519935874058</v>
+        <v>0.0008079519935874058</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.000894709840345792</v>
+        <v>0.000894709840345792</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.0009895595244516597</v>
+        <v>0.0009895595244516597</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.001093128446781212</v>
+        <v>0.001093128446781212</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.001206088824471514</v>
+        <v>0.001206088824471514</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.001329149534129783</v>
+        <v>0.001329149534129783</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.001463070086337022</v>
+        <v>0.001463070086337022</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.001608651954792745</v>
+        <v>0.001608651954792745</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.001766754684737972</v>
+        <v>0.001766754684737972</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.001938287033985599</v>
+        <v>0.001938287033985599</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.002124225669109101</v>
+        <v>0.002124225669109101</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.002325606632891835</v>
+        <v>0.002325606632891835</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.002543547261190356</v>
+        <v>0.002543547261190356</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.002779238764847027</v>
+        <v>0.002779238764847027</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.003033972277990401</v>
+        <v>0.003033972277990401</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.003309133748825721</v>
+        <v>0.003309133748825721</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.003606235470315979</v>
+        <v>0.003606235470315979</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.003926915095936697</v>
+        <v>0.003926915095936697</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.004272974716733721</v>
+        <v>0.004272974716733721</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.004646386800988238</v>
+        <v>0.004646386800988238</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.005049344065479751</v>
+        <v>0.005049344065479751</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.005484276748210266</v>
+        <v>0.005484276748210266</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.005953918542311407</v>
+        <v>0.005953918542311407</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.006461342350871584</v>
+        <v>0.006461342350871584</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.007010051111539374</v>
+        <v>0.007010051111539374</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.007604044037438189</v>
+        <v>0.007604044037438189</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.008247947664100629</v>
+        <v>0.008247947664100629</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.00894713357037462</v>
+        <v>0.00894713357037462</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.009707917375913269</v>
+        <v>0.009707917375913269</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.01053776641811163</v>
+        <v>0.01053776641811163</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.01144561926022982</v>
+        <v>0.01144561926022982</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.01244225774866108</v>
+        <v>0.01244225774866108</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.01354085234040592</v>
+        <v>0.01354085234040592</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.01475765186292915</v>
+        <v>0.01475765186292915</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.01611298017724165</v>
+        <v>0.01611298017724165</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.01763258414166898</v>
+        <v>0.01763258414166898</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.01934960550106717</v>
+        <v>0.01934960550106717</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.02130741594279383</v>
+        <v>0.02130741594279383</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.02356391154811149</v>
+        <v>0.02356391154811149</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.02619809952457945</v>
+        <v>0.02619809952457945</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.02932066325244237</v>
+        <v>0.02932066325244237</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.03309148735305915</v>
+        <v>0.03309148735305915</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.03775024058778387</v>
+        <v>0.03775024058778387</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.04367271186114943</v>
+        <v>0.04367271186114943</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.05148187953613587</v>
+        <v>0.05148187953613587</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.06228489379326839</v>
+        <v>0.06228489379326839</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.07822780607786906</v>
+        <v>0.07822780607786906</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.1039352400765327</v>
+        <v>0.1039352400765327</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.1506754678612034</v>
+        <v>0.1506754678612034</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.2497593133451049</v>
+        <v>0.2497593133451049</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.247398416602666</v>
+        <v>0.247398416602666</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.1459268752358316</v>
+        <v>0.1459268752358316</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.09674410076230869</v>
+        <v>0.09674410076230869</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.06850857413447847</v>
+        <v>0.06850857413447847</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.04991700242007909</v>
+        <v>0.04991700242007909</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.0363032065843794</v>
+        <v>0.0363032065843794</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.02546999669309992</v>
+        <v>0.02546999669309992</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.01624504994407603</v>
+        <v>0.01624504994407603</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.007919445756501602</v>
+        <v>0.007919445756501602</v>
       </c>
     </row>
     <row r="202">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.007919445756501602</v>
+        <v>-0.007919445756501602</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.01624504994407603</v>
+        <v>-0.01624504994407603</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.02546999669309992</v>
+        <v>-0.02546999669309992</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0363032065843794</v>
+        <v>-0.0363032065843794</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.04991700242007911</v>
+        <v>-0.04991700242007911</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.06850857413447846</v>
+        <v>-0.06850857413447846</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0967441007623087</v>
+        <v>-0.0967441007623087</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.1459268752358316</v>
+        <v>-0.1459268752358316</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.247398416602666</v>
+        <v>-0.247398416602666</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.2497593133451048</v>
+        <v>-0.2497593133451048</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.1506754678612034</v>
+        <v>-0.1506754678612034</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.1039352400765328</v>
+        <v>-0.1039352400765328</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.07822780607786906</v>
+        <v>-0.07822780607786906</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.06228489379326839</v>
+        <v>-0.06228489379326839</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.05148187953613588</v>
+        <v>-0.05148187953613588</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.04367271186114943</v>
+        <v>-0.04367271186114943</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.03775024058778387</v>
+        <v>-0.03775024058778387</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.03309148735305914</v>
+        <v>-0.03309148735305914</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.02932066325244236</v>
+        <v>-0.02932066325244236</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.02619809952457946</v>
+        <v>-0.02619809952457946</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.02356391154811149</v>
+        <v>-0.02356391154811149</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.02130741594279382</v>
+        <v>-0.02130741594279382</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.01934960550106717</v>
+        <v>-0.01934960550106717</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.01763258414166898</v>
+        <v>-0.01763258414166898</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.01611298017724164</v>
+        <v>-0.01611298017724164</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.01475765186292915</v>
+        <v>-0.01475765186292915</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.01354085234040592</v>
+        <v>-0.01354085234040592</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.01244225774866108</v>
+        <v>-0.01244225774866108</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.01144561926022982</v>
+        <v>-0.01144561926022982</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.01053776641811162</v>
+        <v>-0.01053776641811162</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.009707917375913269</v>
+        <v>-0.009707917375913269</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.008947133570374619</v>
+        <v>-0.008947133570374619</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.008247947664100629</v>
+        <v>-0.008247947664100629</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.007604044037438184</v>
+        <v>-0.007604044037438184</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.007010051111539375</v>
+        <v>-0.007010051111539375</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.00646134235087158</v>
+        <v>-0.00646134235087158</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.005953918542311407</v>
+        <v>-0.005953918542311407</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.005484276748210263</v>
+        <v>-0.005484276748210263</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.005049344065479751</v>
+        <v>-0.005049344065479751</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.004646386800988236</v>
+        <v>-0.004646386800988236</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.00427297471673372</v>
+        <v>-0.00427297471673372</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.003926915095936696</v>
+        <v>-0.003926915095936696</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.003606235470315978</v>
+        <v>-0.003606235470315978</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.003309133748825721</v>
+        <v>-0.003309133748825721</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.0030339722779904</v>
+        <v>-0.0030339722779904</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0.002779238764847027</v>
+        <v>-0.002779238764847027</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.002543547261190356</v>
+        <v>-0.002543547261190356</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.002325606632891835</v>
+        <v>-0.002325606632891835</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.0021242256691091</v>
+        <v>-0.0021242256691091</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.001938287033985599</v>
+        <v>-0.001938287033985599</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.001766754684737972</v>
+        <v>-0.001766754684737972</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.001608651954792744</v>
+        <v>-0.001608651954792744</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.001463070086337022</v>
+        <v>-0.001463070086337022</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.001329149534129783</v>
+        <v>-0.001329149534129783</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.001206088824471513</v>
+        <v>-0.001206088824471513</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.001093128446781212</v>
+        <v>-0.001093128446781212</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.0009895595244516595</v>
+        <v>-0.0009895595244516595</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.0008947098403457919</v>
+        <v>-0.0008947098403457919</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.0008079519935874058</v>
+        <v>-0.0008079519935874058</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0.0007286912228530559</v>
+        <v>-0.0007286912228530559</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0.0006563728554562095</v>
+        <v>-0.0006563728554562095</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.0005904716712645514</v>
+        <v>-0.0005904716712645514</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.0005304985441037009</v>
+        <v>-0.0005304985441037009</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>0.0004759911431881491</v>
+        <v>-0.0004759911431881491</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.0004265197331083381</v>
+        <v>-0.0004265197331083381</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.0003816790475041236</v>
+        <v>-0.0003816790475041236</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.0003410932600989456</v>
+        <v>-0.0003410932600989456</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.0003044088924818782</v>
+        <v>-0.0003044088924818782</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.0002712989998955059</v>
+        <v>-0.0002712989998955059</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.0002414569949811957</v>
+        <v>-0.0002414569949811957</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.000214600111960543</v>
+        <v>-0.000214600111960543</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.0001904640433610914</v>
+        <v>-0.0001904640433610914</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0.0001688057575853585</v>
+        <v>-0.0001688057575853585</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>0.0001493988575071016</v>
+        <v>-0.0001493988575071016</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0.0001320358313153231</v>
+        <v>-0.0001320358313153231</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>0.0001165240514814813</v>
+        <v>-0.0001165240514814813</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>0.0001026875388849798</v>
+        <v>-0.0001026875388849798</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>9.036352869201838e-05</v>
+        <v>-9.036352869201838e-05</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>7.940382447612249e-05</v>
+        <v>-7.940382447612249e-05</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>6.967186448873616e-05</v>
+        <v>-6.967186448873616e-05</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>6.104373688720026e-05</v>
+        <v>-6.104373688720026e-05</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>5.340568603310558e-05</v>
+        <v>-5.340568603310558e-05</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>4.665485291881148e-05</v>
+        <v>-4.665485291881148e-05</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>4.069716671470306e-05</v>
+        <v>-4.069716671470306e-05</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>3.54478667462831e-05</v>
+        <v>-3.54478667462831e-05</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>3.082972966530047e-05</v>
+        <v>-3.082972966530047e-05</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>2.677342141353889e-05</v>
+        <v>-2.677342141353889e-05</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>2.32160152032632e-05</v>
+        <v>-2.32160152032632e-05</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>2.010121421172098e-05</v>
+        <v>-2.010121421172098e-05</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>1.737812007527654e-05</v>
+        <v>-1.737812007527654e-05</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>1.500135987084422e-05</v>
+        <v>-1.500135987084422e-05</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>1.293006908231278e-05</v>
+        <v>-1.293006908231278e-05</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>1.112794992139331e-05</v>
+        <v>-1.112794992139331e-05</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>9.562436724862782e-06</v>
+        <v>-9.562436724862782e-06</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>8.204706945261826e-06</v>
+        <v>-8.204706945261826e-06</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>7.029000683435037e-06</v>
+        <v>-7.029000683435037e-06</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>6.012600772199679e-06</v>
+        <v>-6.012600772199679e-06</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>5.135281635798649e-06</v>
+        <v>-5.135281635798649e-06</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>4.379270781605976e-06</v>
+        <v>-4.379270781605976e-06</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>3.728805400089701e-06</v>
+        <v>-3.728805400089701e-06</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>3.170084221067157e-06</v>
+        <v>-3.170084221067157e-06</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2.69091321934841e-06</v>
+        <v>-2.69091321934841e-06</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>2.280654111142189e-06</v>
+        <v>-2.280654111142189e-06</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>1.929943209288569e-06</v>
+        <v>-1.929943209288569e-06</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>1.630640748194114e-06</v>
+        <v>-1.630640748194114e-06</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>1.375609339846382e-06</v>
+        <v>-1.375609339846382e-06</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>1.158666733966038e-06</v>
+        <v>-1.158666733966038e-06</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>9.744124673934069e-07</v>
+        <v>-9.744124673934069e-07</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>8.181855035010578e-07</v>
+        <v>-8.181855035010578e-07</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>6.859295527130099e-07</v>
+        <v>-6.859295527130099e-07</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>5.741562109055864e-07</v>
+        <v>-5.741562109055864e-07</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>4.798410710719956e-07</v>
+        <v>-4.798410710719956e-07</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>4.003924220703199e-07</v>
+        <v>-4.003924220703199e-07</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>3.335716870717455e-07</v>
+        <v>-3.335716870717455e-07</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>2.774673888762866e-07</v>
+        <v>-2.774673888762866e-07</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>2.304346582680618e-07</v>
+        <v>-2.304346582680618e-07</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>1.910739675335203e-07</v>
+        <v>-1.910739675335203e-07</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>1.581854710512803e-07</v>
+        <v>-1.581854710512803e-07</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>1.307519116511327e-07</v>
+        <v>-1.307519116511327e-07</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>1.079044071364374e-07</v>
+        <v>-1.079044071364374e-07</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>8.890891067999517e-08</v>
+        <v>-8.890891067999517e-08</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>7.314076084863435e-08</v>
+        <v>-7.314076084863435e-08</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>6.007410117774396e-08</v>
+        <v>-6.007410117774396e-08</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>4.926308727764325e-08</v>
+        <v>-4.926308727764325e-08</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>4.033372258405497e-08</v>
+        <v>-4.033372258405497e-08</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>3.297008275859962e-08</v>
+        <v>-3.297008275859962e-08</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>2.690809039944039e-08</v>
+        <v>-2.690809039944039e-08</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>2.192549121187305e-08</v>
+        <v>-2.192549121187305e-08</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>1.783716058418289e-08</v>
+        <v>-1.783716058418289e-08</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>1.448786322985475e-08</v>
+        <v>-1.448786322985475e-08</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>1.174875276989807e-08</v>
+        <v>-1.174875276989807e-08</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>9.512180297007374e-09</v>
+        <v>-9.512180297007374e-09</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>7.689110758487053e-09</v>
+        <v>-7.689110758487053e-09</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>6.205427952964471e-09</v>
+        <v>-6.205427952964471e-09</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>5.000046687890172e-09</v>
+        <v>-5.000046687890172e-09</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>4.022302172111309e-09</v>
+        <v>-4.022302172111309e-09</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>3.230583980636102e-09</v>
+        <v>-3.230583980636102e-09</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>2.590505140876273e-09</v>
+        <v>-2.590505140876273e-09</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>2.073923030636374e-09</v>
+        <v>-2.073923030636374e-09</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>1.657664717639127e-09</v>
+        <v>-1.657664717639127e-09</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>1.322831678145917e-09</v>
+        <v>-1.322831678145917e-09</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>1.053918904946601e-09</v>
+        <v>-1.053918904946601e-09</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>8.383256420408086e-10</v>
+        <v>-8.383256420408086e-10</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>6.657510827470955e-10</v>
+        <v>-6.657510827470955e-10</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>5.27853134498151e-10</v>
+        <v>-5.27853134498151e-10</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>4.178368994408578e-10</v>
+        <v>-4.178368994408578e-10</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>3.302187599574166e-10</v>
+        <v>-3.302187599574166e-10</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>2.605481934908678e-10</v>
+        <v>-2.605481934908678e-10</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>2.052460743271489e-10</v>
+        <v>-2.052460743271489e-10</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>1.614179980554562e-10</v>
+        <v>-1.614179980554562e-10</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>1.267443916110889e-10</v>
+        <v>-1.267443916110889e-10</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>9.935616113533867e-11</v>
+        <v>-9.935616113533867e-11</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>7.776063605414532e-11</v>
+        <v>-7.776063605414532e-11</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>6.075933831461124e-11</v>
+        <v>-6.075933831461124e-11</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>4.739848835541641e-11</v>
+        <v>-4.739848835541641e-11</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>3.691502502946736e-11</v>
+        <v>-3.691502502946736e-11</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>2.870379794483808e-11</v>
+        <v>-2.870379794483808e-11</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>2.228239086961327e-11</v>
+        <v>-2.228239086961327e-11</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>1.726955115833112e-11</v>
+        <v>-1.726955115833112e-11</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>1.336243362895977e-11</v>
+        <v>-1.336243362895977e-11</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>1.03225321969966e-11</v>
+        <v>-1.03225321969966e-11</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>7.961065844832913e-12</v>
+        <v>-7.961065844832913e-12</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>6.129876348647491e-12</v>
+        <v>-6.129876348647491e-12</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>4.712111363411867e-12</v>
+        <v>-4.712111363411867e-12</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>3.616381816921947e-12</v>
+        <v>-3.616381816921947e-12</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>2.770865227303582e-12</v>
+        <v>-2.770865227303582e-12</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>2.11958488894924e-12</v>
+        <v>-2.11958488894924e-12</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>1.6187049430566e-12</v>
+        <v>-1.6187049430566e-12</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>1.234179304550041e-12</v>
+        <v>-1.234179304550041e-12</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>9.394407053997473e-13</v>
+        <v>-9.394407053997473e-13</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>7.139266470828427e-13</v>
+        <v>-7.139266470828427e-13</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>5.416483784100217e-13</v>
+        <v>-5.416483784100217e-13</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>4.102738457785275e-13</v>
+        <v>-4.102738457785275e-13</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>3.102479688142045e-13</v>
+        <v>-3.102479688142045e-13</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>2.342264952271138e-13</v>
+        <v>-2.342264952271138e-13</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>1.765390981757636e-13</v>
+        <v>-1.765390981757636e-13</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>1.328425337065236e-13</v>
+        <v>-1.328425337065236e-13</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>9.979533172538894e-14</v>
+        <v>-9.979533172538894e-14</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>7.484692252890417e-14</v>
+        <v>-7.484692252890417e-14</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>5.6041954491586e-14</v>
+        <v>-5.6041954491586e-14</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>4.18930576812135e-14</v>
+        <v>-4.18930576812135e-14</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>3.126398383454467e-14</v>
+        <v>-3.126398383454467e-14</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>2.329341309836792e-14</v>
+        <v>-2.329341309836792e-14</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>1.732566789837602e-14</v>
+        <v>-1.732566789837602e-14</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>1.28654273825258e-14</v>
+        <v>-1.28654273825258e-14</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>9.536941597640966e-15</v>
+        <v>-9.536941597640966e-15</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>7.057314686237979e-15</v>
+        <v>-7.057314686237979e-15</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>5.212665075132183e-15</v>
+        <v>-5.212665075132183e-15</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>3.842475765502078e-15</v>
+        <v>-3.842475765502078e-15</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>2.825753028427734e-15</v>
+        <v>-2.825753028427734e-15</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>2.071917342782631e-15</v>
+        <v>-2.071917342782631e-15</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>1.512812214507949e-15</v>
+        <v>-1.512812214507949e-15</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>1.097422336347539e-15</v>
+        <v>-1.097422336347539e-15</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>7.872695562293953e-16</v>
+        <v>-7.872695562293953e-16</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>5.533374271008102e-16</v>
+        <v>-5.533374271008102e-16</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>3.733945681560478e-16</v>
+        <v>-3.733945681560478e-16</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>2.301522415186238e-16</v>
+        <v>-2.301522415186238e-16</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>1.096412948478326e-16</v>
+        <v>-1.096412948478326e-16</v>
       </c>
     </row>
     <row r="402">

--- a/relaxsation_method_numeric_execrsise/potential_data.xlsx
+++ b/relaxsation_method_numeric_execrsise/potential_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B402"/>
+  <dimension ref="A1:B502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.096412948478326e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.301522415186238e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.733945681560478e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.533374271008104e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.872695562293953e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.097422336347539e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.512812214507949e-15</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.071917342782632e-15</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.825753028427734e-15</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.842475765502078e-15</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.212665075132182e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.05731468623798e-15</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.536941597640963e-15</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.28654273825258e-14</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.732566789837601e-14</v>
+        <v>5.204170427930421e-18</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.329341309836792e-14</v>
+        <v>5.204170427930421e-18</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.126398383454465e-14</v>
+        <v>5.204170427930421e-18</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.18930576812135e-14</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.604195449158599e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.484692252890417e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.979533172538892e-14</v>
+        <v>5.204170427930421e-18</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.328425337065236e-13</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.765390981757635e-13</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.342264952271137e-13</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.102479688142044e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.102738457785274e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.416483784100215e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.139266470828425e-13</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.394407053997469e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.23417930455004e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.618704943056599e-12</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.11958488894924e-12</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.770865227303581e-12</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.616381816921946e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.712111363411866e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.129876348647491e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.96106584483291e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.032253219699659e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.336243362895977e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.726955115833111e-11</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.228239086961327e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.870379794483809e-11</v>
+        <v>-5.204170427930421e-18</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.691502502946736e-11</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.739848835541641e-11</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.075933831461124e-11</v>
+        <v>5.204170427930421e-18</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.776063605414533e-11</v>
+        <v>-1.214306433183765e-17</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.935616113533868e-11</v>
+        <v>5.204170427930421e-18</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.267443916110889e-10</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.614179980554562e-10</v>
+        <v>6.938893903907228e-18</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.052460743271489e-10</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.605481934908678e-10</v>
+        <v>6.938893903907228e-18</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.302187599574165e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.178368994408578e-10</v>
+        <v>5.204170427930421e-18</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.278531344981509e-10</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.657510827470956e-10</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>8.383256420408083e-10</v>
+        <v>6.938893903907228e-18</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.053918904946601e-09</v>
+        <v>1.040834085586084e-17</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.322831678145916e-09</v>
+        <v>6.938893903907228e-18</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.657664717639128e-09</v>
+        <v>1.387778780781446e-17</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.073923030636373e-09</v>
+        <v>6.938893903907228e-18</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.590505140876273e-09</v>
+        <v>8.673617379884035e-18</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.230583980636101e-09</v>
+        <v>8.673617379884035e-18</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.022302172111309e-09</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.00004668789017e-09</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.205427952964471e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.68911075848705e-09</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.512180297007372e-09</v>
+        <v>-5.204170427930421e-18</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.174875276989807e-08</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.448786322985475e-08</v>
+        <v>-5.204170427930421e-18</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.783716058418289e-08</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.192549121187305e-08</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.690809039944038e-08</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.297008275859963e-08</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.033372258405497e-08</v>
+        <v>-5.204170427930421e-18</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.926308727764326e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.007410117774393e-08</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.314076084863436e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>8.890891067999516e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.079044071364374e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.307519116511327e-07</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.581854710512803e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.910739675335203e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.304346582680618e-07</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.774673888762865e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.335716870717455e-07</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.0039242207032e-07</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.798410710719956e-07</v>
+        <v>6.938893903907228e-18</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.741562109055864e-07</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.8592955271301e-07</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>8.181855035010578e-07</v>
+        <v>8.673617379884035e-18</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.744124673934069e-07</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.158666733966038e-06</v>
+        <v>6.938893903907228e-18</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.375609339846382e-06</v>
+        <v>5.204170427930421e-18</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.630640748194114e-06</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.929943209288568e-06</v>
+        <v>1.040834085586084e-17</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.280654111142189e-06</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.69091321934841e-06</v>
+        <v>1.734723475976807e-17</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.170084221067157e-06</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.728805400089701e-06</v>
+        <v>2.255140518769849e-17</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.379270781605977e-06</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.135281635798648e-06</v>
+        <v>1.908195823574488e-17</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.012600772199681e-06</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.029000683435038e-06</v>
+        <v>8.673617379884035e-18</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>8.204706945261831e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.562436724862782e-06</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.112794992139331e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.293006908231278e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.500135987084422e-05</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.737812007527654e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.010121421172098e-05</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.321601520326319e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.67734214135389e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.082972966530046e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.544786674628313e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.069716671470305e-05</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.66548529188115e-05</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.340568603310556e-05</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.104373688720028e-05</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.967186448873615e-05</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>7.940382447612252e-05</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9.036352869201838e-05</v>
+        <v>-8.673617379884035e-18</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0001026875388849799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0001165240514814813</v>
+        <v>-1.908195823574488e-17</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0001320358313153231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0001493988575071017</v>
+        <v>-2.081668171172169e-17</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001688057575853585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001904640433610914</v>
+        <v>-1.908195823574488e-17</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002146001119605431</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002414569949811957</v>
+        <v>-2.081668171172169e-17</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002712989998955059</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0003044088924818782</v>
+        <v>-1.734723475976807e-17</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0003410932600989457</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0003816790475041236</v>
+        <v>-1.214306433183765e-17</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0004265197331083381</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0004759911431881492</v>
+        <v>-1.214306433183765e-17</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.000530498544103701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0005904716712645514</v>
+        <v>-1.214306433183765e-17</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0006563728554562097</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0007286912228530559</v>
+        <v>-8.673617379884035e-18</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0008079519935874058</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.000894709840345792</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0009895595244516597</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.001093128446781212</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.001206088824471514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.001329149534129783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.001463070086337022</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.001608651954792745</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.001766754684737972</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.001938287033985599</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.002124225669109101</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.002325606632891835</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.002543547261190356</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.002779238764847027</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.003033972277990401</v>
+        <v>-1.734723475976807e-17</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.003309133748825721</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.003606235470315979</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.003926915095936697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.004272974716733721</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.004646386800988238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.005049344065479751</v>
+        <v>-2.255140518769849e-17</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.005484276748210266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.005953918542311407</v>
+        <v>-1.387778780781446e-17</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.006461342350871584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.007010051111539374</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.007604044037438189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.008247947664100629</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.00894713357037462</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.009707917375913269</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.01053776641811163</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.01144561926022982</v>
+        <v>-1.387778780781446e-17</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.01244225774866108</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.01354085234040592</v>
+        <v>-2.255140518769849e-17</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.01475765186292915</v>
+        <v>-8.673617379884035e-18</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.01611298017724165</v>
+        <v>-2.949029909160572e-17</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.01763258414166898</v>
+        <v>-1.561251128379126e-17</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.01934960550106717</v>
+        <v>-2.602085213965211e-17</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02130741594279383</v>
+        <v>-1.214306433183765e-17</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02356391154811149</v>
+        <v>-2.081668171172169e-17</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.02619809952457945</v>
+        <v>-1.561251128379126e-17</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.02932066325244237</v>
+        <v>-1.040834085586084e-17</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.03309148735305915</v>
+        <v>-1.734723475976807e-17</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.03775024058778387</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.04367271186114943</v>
+        <v>-1.908195823574488e-17</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.05148187953613587</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.06228489379326839</v>
+        <v>-1.908195823574488e-17</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.07822780607786906</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1039352400765327</v>
+        <v>-2.255140518769849e-17</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1506754678612034</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.2497593133451049</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.5</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.247398416602666</v>
+        <v>-2.255140518769849e-17</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1459268752358316</v>
+        <v>-1.387778780781446e-17</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.09674410076230869</v>
+        <v>-1.734723475976807e-17</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.06850857413447847</v>
+        <v>-1.734723475976807e-17</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.04991700242007909</v>
+        <v>-1.040834085586084e-17</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0363032065843794</v>
+        <v>-1.561251128379126e-17</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.02546999669309992</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.01624504994407603</v>
+        <v>-1.734723475976807e-17</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.007919445756501602</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.007919445756501602</v>
+        <v>-8.673617379884035e-18</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.01624504994407603</v>
+        <v>-2.602085213965211e-17</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.02546999669309992</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.0363032065843794</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.04991700242007911</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.06850857413447846</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.0967441007623087</v>
+        <v>5.204170427930421e-18</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.1459268752358316</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.247398416602666</v>
+        <v>6.938893903907228e-18</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.5</v>
+        <v>-2.949029909160572e-17</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.2497593133451048</v>
+        <v>1.040834085586084e-17</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.1506754678612034</v>
+        <v>-3.122502256758253e-17</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.1039352400765328</v>
+        <v>6.938893903907228e-18</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.07822780607786906</v>
+        <v>-2.949029909160572e-17</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.06228489379326839</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.05148187953613588</v>
+        <v>-2.775557561562891e-17</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.04367271186114943</v>
+        <v>-5.204170427930421e-18</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.03775024058778387</v>
+        <v>-3.122502256758253e-17</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.03309148735305914</v>
+        <v>-1.387778780781446e-17</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.02932066325244236</v>
+        <v>-2.949029909160572e-17</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.02619809952457946</v>
+        <v>-2.255140518769849e-17</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.02356391154811149</v>
+        <v>-2.602085213965211e-17</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.02130741594279382</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.01934960550106717</v>
+        <v>-2.775557561562891e-17</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.01763258414166898</v>
+        <v>-2.255140518769849e-17</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.01611298017724164</v>
+        <v>-2.602085213965211e-17</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.01475765186292915</v>
+        <v>-1.734723475976807e-17</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.01354085234040592</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.01244225774866108</v>
+        <v>-1.734723475976807e-17</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.01144561926022982</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.01053776641811162</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.009707917375913269</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.008947133570374619</v>
+        <v>-2.949029909160572e-17</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.008247947664100629</v>
+        <v>-2.602085213965211e-17</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.007604044037438184</v>
+        <v>-3.469446951953614e-17</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.007010051111539375</v>
+        <v>-2.775557561562891e-17</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.00646134235087158</v>
+        <v>-3.469446951953614e-17</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.005953918542311407</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.005484276748210263</v>
+        <v>-2.949029909160572e-17</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.005049344065479751</v>
+        <v>-2.775557561562891e-17</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.004646386800988236</v>
+        <v>-2.42861286636753e-17</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.00427297471673372</v>
+        <v>-2.255140518769849e-17</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.003926915095936696</v>
+        <v>-1.734723475976807e-17</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.003606235470315978</v>
+        <v>-1.387778780781446e-17</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.003309133748825721</v>
+        <v>-1.387778780781446e-17</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.0030339722779904</v>
+        <v>-1.214306433183765e-17</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.002779238764847027</v>
+        <v>-1.387778780781446e-17</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.002543547261190356</v>
+        <v>-8.673617379884035e-18</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.002325606632891835</v>
+        <v>-1.387778780781446e-17</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.0021242256691091</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.001938287033985599</v>
+        <v>-1.040834085586084e-17</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.001766754684737972</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.001608651954792744</v>
+        <v>-8.673617379884035e-18</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.001463070086337022</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.001329149534129783</v>
+        <v>-1.214306433183765e-17</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.001206088824471513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.001093128446781212</v>
+        <v>-8.673617379884035e-18</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.0009895595244516595</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.0008947098403457919</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.0008079519935874058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.0007286912228530559</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.0006563728554562095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.0005904716712645514</v>
+        <v>-5.204170427930421e-18</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.0005304985441037009</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.0004759911431881491</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.0004265197331083381</v>
+        <v>-5.204170427930421e-18</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.0003816790475041236</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.0003410932600989456</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.0003044088924818782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.0002712989998955059</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.0002414569949811957</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.000214600111960543</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.0001904640433610914</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.0001688057575853585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.0001493988575071016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.0001320358313153231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.0001165240514814813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.0001026875388849798</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-9.036352869201838e-05</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-7.940382447612249e-05</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-6.967186448873616e-05</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-6.104373688720026e-05</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-5.340568603310558e-05</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-4.665485291881148e-05</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-4.069716671470306e-05</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-3.54478667462831e-05</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-3.082972966530047e-05</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-2.677342141353889e-05</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-2.32160152032632e-05</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-2.010121421172098e-05</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.737812007527654e-05</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-1.500135987084422e-05</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-1.293006908231278e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-1.112794992139331e-05</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-9.562436724862782e-06</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-8.204706945261826e-06</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-7.029000683435037e-06</v>
+        <v>-8.673617379884035e-18</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-6.012600772199679e-06</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-5.135281635798649e-06</v>
+        <v>-8.673617379884035e-18</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>-4.379270781605976e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-3.728805400089701e-06</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-3.170084221067157e-06</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>-2.69091321934841e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-2.280654111142189e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>-1.929943209288569e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-1.630640748194114e-06</v>
+        <v>5.204170427930421e-18</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-1.375609339846382e-06</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-1.158666733966038e-06</v>
+        <v>1.040834085586084e-17</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>-9.744124673934069e-07</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-8.181855035010578e-07</v>
+        <v>1.040834085586084e-17</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>-6.859295527130099e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-5.741562109055864e-07</v>
+        <v>8.673617379884035e-18</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-4.798410710719956e-07</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-4.003924220703199e-07</v>
+        <v>1.040834085586084e-17</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-3.335716870717455e-07</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>-2.774673888762866e-07</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-2.304346582680618e-07</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>-1.910739675335203e-07</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-1.581854710512803e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-1.307519116511327e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>-1.079044071364374e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>-8.890891067999517e-08</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>-7.314076084863435e-08</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>-6.007410117774396e-08</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-4.926308727764325e-08</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-4.033372258405497e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-3.297008275859962e-08</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-2.690809039944039e-08</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>-2.192549121187305e-08</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-1.783716058418289e-08</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>-1.448786322985475e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>-1.174875276989807e-08</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-9.512180297007374e-09</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-7.689110758487053e-09</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-6.205427952964471e-09</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-5.000046687890172e-09</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-4.022302172111309e-09</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-3.230583980636102e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>-2.590505140876273e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-2.073923030636374e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>-1.657664717639127e-09</v>
+        <v>6.938893903907228e-18</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-1.322831678145917e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-1.053918904946601e-09</v>
+        <v>6.938893903907228e-18</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-8.383256420408086e-10</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-6.657510827470955e-10</v>
+        <v>5.204170427930421e-18</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-5.27853134498151e-10</v>
+        <v>5.204170427930421e-18</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-4.178368994408578e-10</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-3.302187599574166e-10</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-2.605481934908678e-10</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-2.052460743271489e-10</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-1.614179980554562e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-1.267443916110889e-10</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-9.935616113533867e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-7.776063605414532e-11</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>-6.075933831461124e-11</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-4.739848835541641e-11</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>-3.691502502946736e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-2.870379794483808e-11</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-2.228239086961327e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-1.726955115833112e-11</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>-1.336243362895977e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-1.03225321969966e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-7.961065844832913e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-6.129876348647491e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-4.712111363411867e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-3.616381816921947e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>-2.770865227303582e-12</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-2.11958488894924e-12</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-1.6187049430566e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-1.234179304550041e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-9.394407053997473e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-7.139266470828427e-13</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-5.416483784100217e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-4.102738457785275e-13</v>
+        <v>5.204170427930421e-18</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-3.102479688142045e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-2.342264952271138e-13</v>
+        <v>8.673617379884035e-18</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-1.765390981757636e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-1.328425337065236e-13</v>
+        <v>1.214306433183765e-17</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-9.979533172538894e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-7.484692252890417e-14</v>
+        <v>1.214306433183765e-17</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-5.6041954491586e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-4.18930576812135e-14</v>
+        <v>6.938893903907228e-18</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-3.126398383454467e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-2.329341309836792e-14</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-1.732566789837602e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-1.28654273825258e-14</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>-9.536941597640966e-15</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-7.057314686237979e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-5.212665075132183e-15</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>-3.842475765502078e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>-2.825753028427734e-15</v>
+        <v>-3.469446951953614e-18</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-2.071917342782631e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>-1.512812214507949e-15</v>
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-1.097422336347539e-15</v>
+        <v>1.734723475976807e-18</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>-7.872695562293953e-16</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>-5.533374271008102e-16</v>
+        <v>3.469446951953614e-18</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>-3.733945681560478e-16</v>
+        <v>-1.734723475976807e-18</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>-2.301522415186238e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>-1.096412948478326e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -3643,6 +3643,806 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
+        <v>1.734723475976807e-18</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>-1.734723475976807e-18</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>2.602085213965211e-18</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>-1.734723475976807e-18</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>2.602085213965211e-18</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>-1.734723475976807e-18</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>-8.673617379884035e-19</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>-2.602085213965211e-18</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>-2.168404344971009e-18</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>-1.301042606982605e-18</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>-8.673617379884035e-19</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>-1.734723475976807e-18</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>-1.301042606982605e-18</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>-2.168404344971009e-18</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>-2.168404344971009e-19</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>-1.951563910473908e-18</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>-2.168404344971009e-19</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>-2.602085213965211e-18</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>-2.168404344971009e-18</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>-4.336808689942018e-19</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>-1.734723475976807e-18</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>-3.252606517456513e-19</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>-1.192622389734055e-18</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>-2.168404344971009e-19</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>-9.75781955236954e-19</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>-1.084202172485504e-19</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>-8.673617379884035e-19</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>5.421010862427522e-20</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>-7.047314121155779e-19</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>1.084202172485504e-19</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>-3.794707603699266e-19</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>-1.084202172485504e-19</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>-2.710505431213761e-20</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>-5.421010862427522e-20</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>-1.084202172485504e-19</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>-5.421010862427522e-20</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>-8.131516293641283e-20</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>-2.710505431213761e-20</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>-1.084202172485504e-19</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>-5.421010862427522e-20</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>-1.626303258728257e-19</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>-2.710505431213761e-20</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>-1.626303258728257e-19</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>-1.355252715606881e-19</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>-1.01643953670516e-19</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>-1.355252715606881e-20</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>-9.486769009248164e-20</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>-2.032879073410321e-20</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>-7.453889935837843e-20</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>-1.694065894508601e-20</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>-4.743384504624082e-20</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>-1.355252715606881e-20</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>-4.743384504624082e-20</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>-6.776263578034403e-21</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>-4.235164736271502e-20</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>-6.776263578034403e-21</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>-3.388131789017201e-20</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>-8.470329472543003e-21</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>-2.879912020664621e-20</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>-1.355252715606881e-20</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>-2.625802136488331e-20</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>-1.524659305057741e-20</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>-2.286988957586611e-20</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>-1.355252715606881e-20</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>-1.524659305057741e-20</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>-1.01643953670516e-20</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>-1.10114283143059e-20</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>-7.199780051661553e-21</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>-8.046812998915853e-21</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>-6.140988867593677e-21</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>-6.140988867593677e-21</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>-3.811648262644352e-21</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>-4.235164736271502e-21</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>-2.752857078576476e-21</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>-2.646977960169689e-21</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>-2.223461486542538e-21</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>-1.905824131322176e-21</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>-1.376428539288238e-21</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>-1.429368098491632e-21</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>-8.470329472543003e-22</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>-1.111730743271269e-21</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>-4.235164736271502e-22</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>-7.411538288475128e-22</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>-2.117582368135751e-22</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>-4.764560328305439e-22</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>-1.323488980084844e-22</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>-2.779326858178173e-22</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>-6.617444900424221e-23</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>-1.720535674110298e-22</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>-3.970466940254533e-23</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>-5.955700410381799e-23</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>-6.617444900424221e-24</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>-1.985233470127266e-23</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>-9.926167350636332e-24</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>-4.963083675318166e-24</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
         <v>0</v>
       </c>
     </row>
